--- a/04_ChainesFermees/TD_02_LoisES_SimulateurConduite/images/Courbes.xlsx
+++ b/04_ChainesFermees/TD_02_LoisES_SimulateurConduite/images/Courbes.xlsx
@@ -2541,11 +2541,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="48610688"/>
-        <c:axId val="48608384"/>
+        <c:axId val="72850816"/>
+        <c:axId val="73061504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48610688"/>
+        <c:axId val="72850816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -2554,12 +2554,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48608384"/>
+        <c:crossAx val="73061504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48608384"/>
+        <c:axId val="73061504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.147"/>
@@ -2569,7 +2569,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48610688"/>
+        <c:crossAx val="72850816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2582,7 +2582,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2622,8 +2622,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.2673665791776031E-2"/>
-                  <c:y val="0.21779199475065616"/>
+                  <c:x val="3.2673665791776038E-2"/>
+                  <c:y val="0.21779199475065619"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3848,1218 +3848,1218 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="401"/>
                 <c:pt idx="0">
-                  <c:v>-81.826853306344191</c:v>
+                  <c:v>-55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-81.675062107851559</c:v>
+                  <c:v>-54.949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-81.523648091385638</c:v>
+                  <c:v>-54.899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-81.372609623056974</c:v>
+                  <c:v>-54.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-81.221945078212187</c:v>
+                  <c:v>-54.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-81.071652841368419</c:v>
+                  <c:v>-54.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-80.921731306148359</c:v>
+                  <c:v>-54.70000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-80.772178875215744</c:v>
+                  <c:v>-54.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-80.622993960211517</c:v>
+                  <c:v>-54.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-80.474174981690368</c:v>
+                  <c:v>-54.55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-80.325720369057919</c:v>
+                  <c:v>-54.499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-80.177628560508523</c:v>
+                  <c:v>-54.449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-80.029898002963293</c:v>
+                  <c:v>-54.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-79.882527152009004</c:v>
+                  <c:v>-54.349999999999987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-79.735514471837291</c:v>
+                  <c:v>-54.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-79.588858435184363</c:v>
+                  <c:v>-54.249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-79.44255752327139</c:v>
+                  <c:v>-54.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-79.296610225745113</c:v>
+                  <c:v>-54.149999999999984</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-79.151015040619271</c:v>
+                  <c:v>-54.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-79.005770474216163</c:v>
+                  <c:v>-54.04999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-78.860875041109125</c:v>
+                  <c:v>-53.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-78.716327264065058</c:v>
+                  <c:v>-53.949999999999989</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-78.572125673987628</c:v>
+                  <c:v>-53.899999999999984</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-78.428268809861095</c:v>
+                  <c:v>-53.849999999999987</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-78.284755218694229</c:v>
+                  <c:v>-53.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-78.141583455465067</c:v>
+                  <c:v>-53.749999999999986</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-77.998752083065938</c:v>
+                  <c:v>-53.699999999999989</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-77.856259672248868</c:v>
+                  <c:v>-53.649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-77.714104801571594</c:v>
+                  <c:v>-53.59999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-77.572286057344087</c:v>
+                  <c:v>-53.549999999999983</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-77.430802033575134</c:v>
+                  <c:v>-53.499999999999972</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-77.289651331919899</c:v>
+                  <c:v>-53.449999999999974</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-77.148832561627358</c:v>
+                  <c:v>-53.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-77.00834433948863</c:v>
+                  <c:v>-53.34999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-76.868185289785458</c:v>
+                  <c:v>-53.299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-76.728354044239197</c:v>
+                  <c:v>-53.249999999999979</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-76.588849241960233</c:v>
+                  <c:v>-53.199999999999974</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-76.449669529397752</c:v>
+                  <c:v>-53.149999999999977</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-76.310813560289972</c:v>
+                  <c:v>-53.099999999999973</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-76.172279995614744</c:v>
+                  <c:v>-53.049999999999976</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-76.034067503540598</c:v>
+                  <c:v>-52.999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-75.896174759378169</c:v>
+                  <c:v>-52.949999999999967</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-75.758600445531954</c:v>
+                  <c:v>-52.89999999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-75.621343251452544</c:v>
+                  <c:v>-52.849999999999973</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-75.484401873589249</c:v>
+                  <c:v>-52.799999999999976</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-75.34777501534289</c:v>
+                  <c:v>-52.749999999999979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-75.211461387019384</c:v>
+                  <c:v>-52.699999999999974</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-75.075459705783331</c:v>
+                  <c:v>-52.649999999999977</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-74.939768695612031</c:v>
+                  <c:v>-52.599999999999973</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-74.804387087250106</c:v>
+                  <c:v>-52.549999999999976</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-74.669313618164153</c:v>
+                  <c:v>-52.499999999999972</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-74.534547032498097</c:v>
+                  <c:v>-52.449999999999982</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-74.400086081028576</c:v>
+                  <c:v>-52.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-74.265929521120896</c:v>
+                  <c:v>-52.34999999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-74.132076116685283</c:v>
+                  <c:v>-52.299999999999976</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-73.99852463813346</c:v>
+                  <c:v>-52.249999999999972</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-73.865273862335627</c:v>
+                  <c:v>-52.199999999999982</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-73.73232257257763</c:v>
+                  <c:v>-52.149999999999977</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-73.599669558518684</c:v>
+                  <c:v>-52.099999999999987</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-73.467313616149227</c:v>
+                  <c:v>-52.049999999999983</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-73.335253547749303</c:v>
+                  <c:v>-51.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-73.203488161847091</c:v>
+                  <c:v>-51.949999999999982</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-73.07201627317788</c:v>
+                  <c:v>-51.899999999999977</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-72.940836702643338</c:v>
+                  <c:v>-51.84999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-72.809948277270991</c:v>
+                  <c:v>-51.799999999999976</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-72.679349830174317</c:v>
+                  <c:v>-51.749999999999972</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-72.549040200512721</c:v>
+                  <c:v>-51.699999999999974</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-72.419018233452221</c:v>
+                  <c:v>-51.649999999999977</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-72.289282780126186</c:v>
+                  <c:v>-51.59999999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-72.15983269759657</c:v>
+                  <c:v>-51.549999999999983</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-72.030666848815187</c:v>
+                  <c:v>-51.499999999999979</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-71.901784102585651</c:v>
+                  <c:v>-51.449999999999982</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-71.773183333525211</c:v>
+                  <c:v>-51.399999999999984</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-71.644863422027186</c:v>
+                  <c:v>-51.349999999999973</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-71.516823254223652</c:v>
+                  <c:v>-51.299999999999976</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-71.389061721948167</c:v>
+                  <c:v>-51.249999999999979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-71.261577722699101</c:v>
+                  <c:v>-51.199999999999974</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-71.134370159603108</c:v>
+                  <c:v>-51.149999999999977</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-71.007437941378797</c:v>
+                  <c:v>-51.09999999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-70.880779982300922</c:v>
+                  <c:v>-51.049999999999983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-70.754395202164559</c:v>
+                  <c:v>-50.999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-70.628282526249734</c:v>
+                  <c:v>-50.949999999999982</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-70.50244088528639</c:v>
+                  <c:v>-50.899999999999984</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-70.376869215419305</c:v>
+                  <c:v>-50.849999999999987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-70.251566458173698</c:v>
+                  <c:v>-50.799999999999976</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-70.126531560420801</c:v>
+                  <c:v>-50.749999999999972</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-70.001763474343818</c:v>
+                  <c:v>-50.699999999999982</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-69.877261157403964</c:v>
+                  <c:v>-50.649999999999977</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-69.753023572307143</c:v>
+                  <c:v>-50.59999999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-69.62904968697049</c:v>
+                  <c:v>-50.549999999999976</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-69.505338474489349</c:v>
+                  <c:v>-50.499999999999979</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-69.381888913104461</c:v>
+                  <c:v>-50.449999999999982</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-69.258699986169461</c:v>
+                  <c:v>-50.399999999999984</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-69.135770682118519</c:v>
+                  <c:v>-50.34999999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-69.013099994434327</c:v>
+                  <c:v>-50.29999999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-68.890686921616179</c:v>
+                  <c:v>-50.249999999999986</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-68.76853046714858</c:v>
+                  <c:v>-50.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-68.646629639469637</c:v>
+                  <c:v>-50.149999999999984</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-68.52498345194023</c:v>
+                  <c:v>-50.09999999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-68.403590922812967</c:v>
+                  <c:v>-50.049999999999983</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-68.28245107520155</c:v>
+                  <c:v>-49.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-68.161562937050419</c:v>
+                  <c:v>-49.949999999999982</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-68.040925541104542</c:v>
+                  <c:v>-49.899999999999984</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-67.920537924879454</c:v>
+                  <c:v>-49.849999999999987</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-67.800399130631462</c:v>
+                  <c:v>-49.799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-67.680508205328337</c:v>
+                  <c:v>-49.749999999999986</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-67.56086420061969</c:v>
+                  <c:v>-49.699999999999982</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-67.441466172808177</c:v>
+                  <c:v>-49.649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-67.322313182820466</c:v>
+                  <c:v>-49.59999999999998</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-67.203404296178761</c:v>
+                  <c:v>-49.54999999999999</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-67.084738582972122</c:v>
+                  <c:v>-49.499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-66.966315117828444</c:v>
+                  <c:v>-49.449999999999989</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-66.848132979886373</c:v>
+                  <c:v>-49.399999999999984</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-66.730191252767469</c:v>
+                  <c:v>-49.349999999999987</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-66.612489024548637</c:v>
+                  <c:v>-49.29999999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-66.495025387734685</c:v>
+                  <c:v>-49.249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-66.377799439231154</c:v>
+                  <c:v>-49.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-66.260810280317287</c:v>
+                  <c:v>-49.149999999999984</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-66.144057016619286</c:v>
+                  <c:v>-49.099999999999987</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-66.027538758083608</c:v>
+                  <c:v>-49.04999999999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-65.911254618950622</c:v>
+                  <c:v>-48.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-65.795203717728398</c:v>
+                  <c:v>-48.949999999999989</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-65.679385177166594</c:v>
+                  <c:v>-48.899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-65.563798124230715</c:v>
+                  <c:v>-48.849999999999987</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-65.448441690076351</c:v>
+                  <c:v>-48.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-65.333315010023853</c:v>
+                  <c:v>-48.749999999999993</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-65.21841722353291</c:v>
+                  <c:v>-48.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-65.103747474177538</c:v>
+                  <c:v>-48.649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-64.989304909621154</c:v>
+                  <c:v>-48.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-64.875088681591819</c:v>
+                  <c:v>-48.54999999999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-64.761097945857657</c:v>
+                  <c:v>-48.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-64.647331862202535</c:v>
+                  <c:v>-48.449999999999989</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-64.533789594401838</c:v>
+                  <c:v>-48.4</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-64.420470310198397</c:v>
+                  <c:v>-48.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-64.307373181278649</c:v>
+                  <c:v>-48.299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-64.194497383249058</c:v>
+                  <c:v>-48.249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-64.081842095612402</c:v>
+                  <c:v>-48.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-63.969406501744572</c:v>
+                  <c:v>-48.149999999999991</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-63.857189788871324</c:v>
+                  <c:v>-48.099999999999987</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-63.74519114804535</c:v>
+                  <c:v>-48.04999999999999</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-63.633409774123272</c:v>
+                  <c:v>-47.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-63.521844865743134</c:v>
+                  <c:v>-47.949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-63.410495625301692</c:v>
+                  <c:v>-47.899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-63.299361258932215</c:v>
+                  <c:v>-47.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-63.188440976482156</c:v>
+                  <c:v>-47.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-63.077733991491208</c:v>
+                  <c:v>-47.749999999999993</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-62.967239521169269</c:v>
+                  <c:v>-47.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-62.856956786374823</c:v>
+                  <c:v>-47.649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-62.746885011593328</c:v>
+                  <c:v>-47.599999999999987</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-62.63702342491576</c:v>
+                  <c:v>-47.55</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-62.527371258017311</c:v>
+                  <c:v>-47.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-62.417927746136357</c:v>
+                  <c:v>-47.45</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-62.308692128053288</c:v>
+                  <c:v>-47.4</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-62.19966364606988</c:v>
+                  <c:v>-47.349999999999987</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-62.090841545988503</c:v>
+                  <c:v>-47.29999999999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-61.982225077091549</c:v>
+                  <c:v>-47.249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-61.873813492121066</c:v>
+                  <c:v>-47.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-61.765606047258558</c:v>
+                  <c:v>-47.15</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-61.657602002104689</c:v>
+                  <c:v>-47.099999999999987</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-61.549800619659592</c:v>
+                  <c:v>-47.05</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-61.442201166302716</c:v>
+                  <c:v>-46.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-61.334802911773345</c:v>
+                  <c:v>-46.949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-61.22760512915098</c:v>
+                  <c:v>-46.9</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-61.120607094835869</c:v>
+                  <c:v>-46.85</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-61.013808088529721</c:v>
+                  <c:v>-46.8</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-60.907207393216659</c:v>
+                  <c:v>-46.749999999999993</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-60.800804295144019</c:v>
+                  <c:v>-46.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-60.694598083803584</c:v>
+                  <c:v>-46.649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-60.588588051912787</c:v>
+                  <c:v>-46.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-60.482773495396039</c:v>
+                  <c:v>-46.55</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-60.377153713366255</c:v>
+                  <c:v>-46.499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-60.271728008106528</c:v>
+                  <c:v>-46.449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-60.166495685051743</c:v>
+                  <c:v>-46.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-60.061456052770595</c:v>
+                  <c:v>-46.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-59.956608422947482</c:v>
+                  <c:v>-46.300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-59.851952110364664</c:v>
+                  <c:v>-46.25</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-59.747486432884514</c:v>
+                  <c:v>-46.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-59.643210711431863</c:v>
+                  <c:v>-46.149999999999991</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-59.539124269976533</c:v>
+                  <c:v>-46.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-59.43522643551583</c:v>
+                  <c:v>-46.04999999999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-59.331516538057414</c:v>
+                  <c:v>-45.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-59.227993910601974</c:v>
+                  <c:v>-45.949999999999989</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-59.124657889126368</c:v>
+                  <c:v>-45.9</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-59.02150781256649</c:v>
+                  <c:v>-45.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-58.918543022800669</c:v>
+                  <c:v>-45.8</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-58.815762864632816</c:v>
+                  <c:v>-45.749999999999993</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-58.713166685775867</c:v>
+                  <c:v>-45.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-58.610753836835364</c:v>
+                  <c:v>-45.65</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-58.50852367129302</c:v>
+                  <c:v>-45.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-58.40647554549053</c:v>
+                  <c:v>-45.54999999999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-58.304608818613389</c:v>
+                  <c:v>-45.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-58.202922852674838</c:v>
+                  <c:v>-45.449999999999989</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-58.101417012499994</c:v>
+                  <c:v>-45.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-58.000090665709962</c:v>
+                  <c:v>-45.349999999999987</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-57.898943182706219</c:v>
+                  <c:v>-45.3</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-57.797973936654834</c:v>
+                  <c:v>-45.249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-57.697182303471187</c:v>
+                  <c:v>-45.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-57.596567661804379</c:v>
+                  <c:v>-45.15</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-57.496129393021988</c:v>
+                  <c:v>-45.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-57.395866881194934</c:v>
+                  <c:v>-45.05</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-57.295779513082302</c:v>
+                  <c:v>-44.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-57.19586667811641</c:v>
+                  <c:v>-44.949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-57.096127768387831</c:v>
+                  <c:v>-44.9</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-56.996562178630683</c:v>
+                  <c:v>-44.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-56.897169306207886</c:v>
+                  <c:v>-44.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-56.797948551096574</c:v>
+                  <c:v>-44.749999999999993</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-56.698899315873547</c:v>
+                  <c:v>-44.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-56.60002100570091</c:v>
+                  <c:v>-44.649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-56.501313028311792</c:v>
+                  <c:v>-44.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-56.402774793995995</c:v>
+                  <c:v>-44.54999999999999</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-56.304405715586007</c:v>
+                  <c:v>-44.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-56.206205208442881</c:v>
+                  <c:v>-44.449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-56.108172690442331</c:v>
+                  <c:v>-44.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-56.01030758196088</c:v>
+                  <c:v>-44.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-55.912609305862063</c:v>
+                  <c:v>-44.29999999999999</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-55.815077287482815</c:v>
+                  <c:v>-44.249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-55.717710954619854</c:v>
+                  <c:v>-44.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-55.62050973751618</c:v>
+                  <c:v>-44.149999999999991</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-55.523473068847728</c:v>
+                  <c:v>-44.1</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-55.426600383709946</c:v>
+                  <c:v>-44.04999999999999</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-55.329891119604717</c:v>
+                  <c:v>-44</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-55.233344716427013</c:v>
+                  <c:v>-43.949999999999989</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-55.136960616452079</c:v>
+                  <c:v>-43.899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-55.040738264322236</c:v>
+                  <c:v>-43.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-54.944677107034138</c:v>
+                  <c:v>-43.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-54.848776593925898</c:v>
+                  <c:v>-43.749999999999993</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-54.753036176664359</c:v>
+                  <c:v>-43.699999999999989</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-54.657455309232539</c:v>
+                  <c:v>-43.65</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-54.56203344791691</c:v>
+                  <c:v>-43.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-54.466770051295121</c:v>
+                  <c:v>-43.55</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-54.371664580223438</c:v>
+                  <c:v>-43.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-54.276716497824467</c:v>
+                  <c:v>-43.449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-54.181925269474966</c:v>
+                  <c:v>-43.4</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-54.087290362793617</c:v>
+                  <c:v>-43.349999999999987</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-53.992811247629007</c:v>
+                  <c:v>-43.29999999999999</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-53.89848739604755</c:v>
+                  <c:v>-43.249999999999993</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-53.804318282321603</c:v>
+                  <c:v>-43.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-53.710303382917637</c:v>
+                  <c:v>-43.149999999999991</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-53.616442176484391</c:v>
+                  <c:v>-43.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-53.522734143841205</c:v>
+                  <c:v>-43.05</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-53.42917876796642</c:v>
+                  <c:v>-42.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-53.335775533985775</c:v>
+                  <c:v>-42.949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-53.24252392916096</c:v>
+                  <c:v>-42.899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-53.149423442878195</c:v>
+                  <c:v>-42.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-53.056473566636875</c:v>
+                  <c:v>-42.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-52.963673794038385</c:v>
+                  <c:v>-42.749999999999993</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-52.871023620774771</c:v>
+                  <c:v>-42.699999999999989</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-52.778522544617772</c:v>
+                  <c:v>-42.649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-52.686170065407651</c:v>
+                  <c:v>-42.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-52.593965685042264</c:v>
+                  <c:v>-42.54999999999999</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-52.501908907466152</c:v>
+                  <c:v>-42.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-52.409999238659665</c:v>
+                  <c:v>-42.449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-52.318236186628233</c:v>
+                  <c:v>-42.4</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-52.226619261391598</c:v>
+                  <c:v>-42.35</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-52.135147974973243</c:v>
+                  <c:v>-42.3</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-52.04382184138975</c:v>
+                  <c:v>-42.25</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>-51.952640376640346</c:v>
+                  <c:v>-42.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>-51.861603098696413</c:v>
+                  <c:v>-42.15</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>-51.770709527491157</c:v>
+                  <c:v>-42.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>-51.679959184909258</c:v>
+                  <c:v>-42.05</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>-51.589351594776637</c:v>
+                  <c:v>-41.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>-51.498886282850293</c:v>
+                  <c:v>-41.949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>-51.408562776808118</c:v>
+                  <c:v>-41.9</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>-51.318380606238925</c:v>
+                  <c:v>-41.85</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>-51.228339302632378</c:v>
+                  <c:v>-41.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>-51.138438399369093</c:v>
+                  <c:v>-41.75</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>-51.048677431710772</c:v>
+                  <c:v>-41.7</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>-50.959055936790364</c:v>
+                  <c:v>-41.65</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>-50.869573453602335</c:v>
+                  <c:v>-41.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>-50.78022952299299</c:v>
+                  <c:v>-41.55</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>-50.69102368765077</c:v>
+                  <c:v>-41.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>-50.601955492096806</c:v>
+                  <c:v>-41.449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>-50.513024482675277</c:v>
+                  <c:v>-41.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>-50.424230207544056</c:v>
+                  <c:v>-41.35</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>-50.335572216665206</c:v>
+                  <c:v>-41.3</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>-50.24705006179579</c:v>
+                  <c:v>-41.25</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>-50.158663296478451</c:v>
+                  <c:v>-41.2</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>-50.070411476032248</c:v>
+                  <c:v>-41.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>-49.982294157543485</c:v>
+                  <c:v>-41.1</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>-49.894310899856606</c:v>
+                  <c:v>-41.05</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>-49.806461263565126</c:v>
+                  <c:v>-41</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>-49.718744811002594</c:v>
+                  <c:v>-40.949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>-49.631161106233748</c:v>
+                  <c:v>-40.9</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>-49.543709715045495</c:v>
+                  <c:v>-40.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>-49.456390204938181</c:v>
+                  <c:v>-40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>-49.369202145116731</c:v>
+                  <c:v>-40.75</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>-49.282145106481948</c:v>
+                  <c:v>-40.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>-49.195218661621858</c:v>
+                  <c:v>-40.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>-49.108422384803035</c:v>
+                  <c:v>-40.6</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>-49.021755851962062</c:v>
+                  <c:v>-40.550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>-48.935218640697002</c:v>
+                  <c:v>-40.500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>-48.8488103302589</c:v>
+                  <c:v>-40.449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>-48.762530501543417</c:v>
+                  <c:v>-40.4</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>-48.676378737082409</c:v>
+                  <c:v>-40.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>-48.59035462103563</c:v>
+                  <c:v>-40.29999999999999</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>-48.504457739182492</c:v>
+                  <c:v>-40.25</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>-48.418687678913763</c:v>
+                  <c:v>-40.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>-48.333044029223494</c:v>
+                  <c:v>-40.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>-48.247526380700826</c:v>
+                  <c:v>-40.1</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>-48.162134325521976</c:v>
+                  <c:v>-40.050000000000011</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>-48.076867457442134</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>-47.991725371787588</c:v>
+                  <c:v>-39.950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>-47.906707665447705</c:v>
+                  <c:v>-39.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>-47.821813936867088</c:v>
+                  <c:v>-39.85</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>-47.737043786037759</c:v>
+                  <c:v>-39.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>-47.652396814491325</c:v>
+                  <c:v>-39.75</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>-47.56787262529128</c:v>
+                  <c:v>-39.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>-47.483470823025286</c:v>
+                  <c:v>-39.65</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>-47.399191013797527</c:v>
+                  <c:v>-39.6</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>-47.315032805221065</c:v>
+                  <c:v>-39.550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>-47.230995806410398</c:v>
+                  <c:v>-39.500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>-47.147079627973795</c:v>
+                  <c:v>-39.450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>-47.063283882005926</c:v>
+                  <c:v>-39.400000000000013</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>-46.979608182080369</c:v>
+                  <c:v>-39.35</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>-46.896052143242315</c:v>
+                  <c:v>-39.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>-46.812615382001113</c:v>
+                  <c:v>-39.250000000000007</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>-46.729297516323072</c:v>
+                  <c:v>-39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>-46.64609816562416</c:v>
+                  <c:v>-39.15</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>-46.563016950762801</c:v>
+                  <c:v>-39.1</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>-46.480053494032688</c:v>
+                  <c:v>-39.050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>-46.39720741915567</c:v>
+                  <c:v>-39.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>-46.314478351274715</c:v>
+                  <c:v>-38.95000000000001</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>-46.231865916946745</c:v>
+                  <c:v>-38.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>-46.149369744135775</c:v>
+                  <c:v>-38.850000000000009</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>-46.066989462205839</c:v>
+                  <c:v>-38.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>-45.984724701914132</c:v>
+                  <c:v>-38.750000000000007</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>-45.902575095404082</c:v>
+                  <c:v>-38.70000000000001</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>-45.820540276198557</c:v>
+                  <c:v>-38.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>-45.738619879193045</c:v>
+                  <c:v>-38.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>-45.656813540648855</c:v>
+                  <c:v>-38.550000000000011</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>-45.575120898186441</c:v>
+                  <c:v>-38.500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>-45.493541590778705</c:v>
+                  <c:v>-38.45000000000001</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>-45.412075258744345</c:v>
+                  <c:v>-38.400000000000013</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>-45.330721543741234</c:v>
+                  <c:v>-38.350000000000009</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>-45.249480088759903</c:v>
+                  <c:v>-38.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>-45.168350538116918</c:v>
+                  <c:v>-38.250000000000007</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>-45.087332537448482</c:v>
+                  <c:v>-38.20000000000001</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>-45.006425733703921</c:v>
+                  <c:v>-38.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>-44.925629775139278</c:v>
+                  <c:v>-38.100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>-44.84494431131094</c:v>
+                  <c:v>-38.050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>-44.764368993069276</c:v>
+                  <c:v>-38.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>-44.683903472552352</c:v>
+                  <c:v>-37.95000000000001</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>-44.603547403179604</c:v>
+                  <c:v>-37.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>-44.523300439645666</c:v>
+                  <c:v>-37.850000000000009</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>-44.443162237914144</c:v>
+                  <c:v>-37.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>-44.363132455211435</c:v>
+                  <c:v>-37.750000000000014</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>-44.283210750020594</c:v>
+                  <c:v>-37.700000000000017</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>-44.203396782075245</c:v>
+                  <c:v>-37.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>-44.123690212353559</c:v>
+                  <c:v>-37.600000000000016</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>-44.044090703072136</c:v>
+                  <c:v>-37.550000000000011</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>-43.964597917680095</c:v>
+                  <c:v>-37.500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>-43.88521152085309</c:v>
+                  <c:v>-37.45000000000001</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>-43.805931178487356</c:v>
+                  <c:v>-37.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>-43.726756557693861</c:v>
+                  <c:v>-37.350000000000009</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>-43.647687326792401</c:v>
+                  <c:v>-37.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>-43.568723155305804</c:v>
+                  <c:v>-37.250000000000014</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>-43.489863713954165</c:v>
+                  <c:v>-37.200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>-43.411108674649007</c:v>
+                  <c:v>-37.150000000000013</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>-43.332457710487624</c:v>
+                  <c:v>-37.100000000000016</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>-43.253910495747348</c:v>
+                  <c:v>-37.050000000000018</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>-43.175466705879906</c:v>
+                  <c:v>-37.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>-43.097126017505765</c:v>
+                  <c:v>-36.95000000000001</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>-43.018888108408575</c:v>
+                  <c:v>-36.900000000000013</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>-42.940752657529544</c:v>
+                  <c:v>-36.850000000000009</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>-42.862719344961931</c:v>
+                  <c:v>-36.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>-42.784787851945545</c:v>
+                  <c:v>-36.750000000000007</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>-42.706957860861252</c:v>
+                  <c:v>-36.70000000000001</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>-42.629229055225551</c:v>
+                  <c:v>-36.650000000000013</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>-42.551601119685117</c:v>
+                  <c:v>-36.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>-42.474073740011477</c:v>
+                  <c:v>-36.550000000000011</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>-42.396646603095604</c:v>
+                  <c:v>-36.500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>-42.319319396942603</c:v>
+                  <c:v>-36.450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>-42.242091810666452</c:v>
+                  <c:v>-36.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>-42.16496353448467</c:v>
+                  <c:v>-36.35</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>-42.087934259713144</c:v>
+                  <c:v>-36.300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>-42.011003678760858</c:v>
+                  <c:v>-36.25</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>-41.9341714851248</c:v>
+                  <c:v>-36.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>-41.85743737338472</c:v>
+                  <c:v>-36.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>-41.780801039198046</c:v>
+                  <c:v>-36.1</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>-41.704262179294822</c:v>
+                  <c:v>-36.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>-41.62782049147259</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>-41.551475674591373</c:v>
+                  <c:v>-35.949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>-41.475227428568658</c:v>
+                  <c:v>-35.9</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>-41.399075454374447</c:v>
+                  <c:v>-35.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>-41.323019454026237</c:v>
+                  <c:v>-35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>-41.247059130584162</c:v>
+                  <c:v>-35.749999999999993</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>-41.171194188146046</c:v>
+                  <c:v>-35.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>-41.095424331842523</c:v>
+                  <c:v>-35.65</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>-41.019749267832239</c:v>
+                  <c:v>-35.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>-40.944168703296967</c:v>
+                  <c:v>-35.54999999999999</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>-40.86868234643687</c:v>
+                  <c:v>-35.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>-40.793289906465681</c:v>
+                  <c:v>-35.449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>-40.717991093605988</c:v>
+                  <c:v>-35.399999999999984</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>-40.642785619084535</c:v>
+                  <c:v>-35.349999999999987</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>-40.567673195127476</c:v>
+                  <c:v>-35.299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>-40.49265353495575</c:v>
+                  <c:v>-35.249999999999986</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>-40.417726352780434</c:v>
+                  <c:v>-35.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>-40.342891363798124</c:v>
+                  <c:v>-35.149999999999984</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>-40.268148284186353</c:v>
+                  <c:v>-35.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>-40.193496831098962</c:v>
+                  <c:v>-35.04999999999999</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>-40.118936722661672</c:v>
+                  <c:v>-34.999999999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="92551424"/>
-        <c:axId val="92549888"/>
+        <c:axId val="79284480"/>
+        <c:axId val="10842112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92551424"/>
+        <c:axId val="79284480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -5068,22 +5068,22 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92549888"/>
+        <c:crossAx val="10842112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92549888"/>
+        <c:axId val="10842112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-40.1"/>
-          <c:min val="-81.83"/>
+          <c:max val="-35"/>
+          <c:min val="-55"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92551424"/>
+        <c:crossAx val="79284480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5096,7 +5096,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5455,7 +5455,7 @@
   <dimension ref="A1:H402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5486,12 +5486,12 @@
         <v>0.80300701089146442</v>
       </c>
       <c r="C2">
-        <f>DEGREES(-($H$1*COS(RADIANS(A2)))/($H$1*SIN(RADIANS(A2))+$H$1))</f>
-        <v>-81.826853306344191</v>
+        <f>DEGREES(ATAN(-($H$1*COS(RADIANS(A2)))/($H$1*SIN(RADIANS(A2))+$H$1)))</f>
+        <v>-55</v>
       </c>
       <c r="D2">
         <f>MIN(C2:C402)</f>
-        <v>-81.826853306344191</v>
+        <v>-55</v>
       </c>
       <c r="E2">
         <f>LINEST(B2:B402,A2:A402)</f>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="F2">
         <f>LINEST(C2:C402,A2:A402)</f>
-        <v>1.0253823352600737</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5512,12 +5512,12 @@
         <v>0.80400748801936595</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="1">DEGREES(-($H$1*COS(RADIANS(A3)))/($H$1*SIN(RADIANS(A3))+$H$1))</f>
-        <v>-81.675062107851559</v>
+        <f t="shared" ref="C3:C66" si="1">DEGREES(ATAN(-($H$1*COS(RADIANS(A3)))/($H$1*SIN(RADIANS(A3))+$H$1)))</f>
+        <v>-54.949999999999996</v>
       </c>
       <c r="D3">
         <f>MAX(C2:C402)</f>
-        <v>-40.118936722661672</v>
+        <v>-34.999999999999986</v>
       </c>
       <c r="E3">
         <f>INTERCEPT(B2:B402,A2:A402)</f>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="F3">
         <f>INTERCEPT(C2:C402,A2:A402)</f>
-        <v>-58.50227360807672</v>
+        <v>-45.000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>-81.523648091385638</v>
+        <v>-54.899999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>-81.372609623056974</v>
+        <v>-54.849999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>-81.221945078212187</v>
+        <v>-54.800000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>-81.071652841368419</v>
+        <v>-54.75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>-80.921731306148359</v>
+        <v>-54.70000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>-80.772178875215744</v>
+        <v>-54.65</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>-80.622993960211517</v>
+        <v>-54.6</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>-80.474174981690368</v>
+        <v>-54.55</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>-80.325720369057919</v>
+        <v>-54.499999999999986</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>-80.177628560508523</v>
+        <v>-54.449999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>-80.029898002963293</v>
+        <v>-54.399999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>-79.882527152009004</v>
+        <v>-54.349999999999987</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>-79.735514471837291</v>
+        <v>-54.3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>-79.588858435184363</v>
+        <v>-54.249999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>-79.44255752327139</v>
+        <v>-54.199999999999989</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>-79.296610225745113</v>
+        <v>-54.149999999999984</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>-79.151015040619271</v>
+        <v>-54.099999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>-79.005770474216163</v>
+        <v>-54.04999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>-78.860875041109125</v>
+        <v>-53.999999999999986</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>-78.716327264065058</v>
+        <v>-53.949999999999989</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>-78.572125673987628</v>
+        <v>-53.899999999999984</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>-78.428268809861095</v>
+        <v>-53.849999999999987</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>-78.284755218694229</v>
+        <v>-53.79999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>-78.141583455465067</v>
+        <v>-53.749999999999986</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>-77.998752083065938</v>
+        <v>-53.699999999999989</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>-77.856259672248868</v>
+        <v>-53.649999999999991</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>-77.714104801571594</v>
+        <v>-53.59999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>-77.572286057344087</v>
+        <v>-53.549999999999983</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>-77.430802033575134</v>
+        <v>-53.499999999999972</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>-77.289651331919899</v>
+        <v>-53.449999999999974</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>-77.148832561627358</v>
+        <v>-53.399999999999977</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>-77.00834433948863</v>
+        <v>-53.34999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>-76.868185289785458</v>
+        <v>-53.299999999999983</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>-76.728354044239197</v>
+        <v>-53.249999999999979</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>-76.588849241960233</v>
+        <v>-53.199999999999974</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>-76.449669529397752</v>
+        <v>-53.149999999999977</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>-76.310813560289972</v>
+        <v>-53.099999999999973</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>-76.172279995614744</v>
+        <v>-53.049999999999976</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>-76.034067503540598</v>
+        <v>-52.999999999999972</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>-75.896174759378169</v>
+        <v>-52.949999999999967</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>-75.758600445531954</v>
+        <v>-52.89999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>-75.621343251452544</v>
+        <v>-52.849999999999973</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>-75.484401873589249</v>
+        <v>-52.799999999999976</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>-75.34777501534289</v>
+        <v>-52.749999999999979</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>-75.211461387019384</v>
+        <v>-52.699999999999974</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>-75.075459705783331</v>
+        <v>-52.649999999999977</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>-74.939768695612031</v>
+        <v>-52.599999999999973</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>-74.804387087250106</v>
+        <v>-52.549999999999976</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>-74.669313618164153</v>
+        <v>-52.499999999999972</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>-74.534547032498097</v>
+        <v>-52.449999999999982</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>-74.400086081028576</v>
+        <v>-52.399999999999977</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>-74.265929521120896</v>
+        <v>-52.34999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>-74.132076116685283</v>
+        <v>-52.299999999999976</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>-73.99852463813346</v>
+        <v>-52.249999999999972</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>-73.865273862335627</v>
+        <v>-52.199999999999982</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>-73.73232257257763</v>
+        <v>-52.149999999999977</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>-73.599669558518684</v>
+        <v>-52.099999999999987</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>-73.467313616149227</v>
+        <v>-52.049999999999983</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>-73.335253547749303</v>
+        <v>-51.999999999999986</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>-73.203488161847091</v>
+        <v>-51.949999999999982</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>-73.07201627317788</v>
+        <v>-51.899999999999977</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>-72.940836702643338</v>
+        <v>-51.84999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>-72.809948277270991</v>
+        <v>-51.799999999999976</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -6420,8 +6420,8 @@
         <v>0.86673152903376793</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="4">DEGREES(-($H$1*COS(RADIANS(A67)))/($H$1*SIN(RADIANS(A67))+$H$1))</f>
-        <v>-72.679349830174317</v>
+        <f t="shared" ref="C67:C130" si="4">DEGREES(ATAN(-($H$1*COS(RADIANS(A67)))/($H$1*SIN(RADIANS(A67))+$H$1)))</f>
+        <v>-51.749999999999972</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="C68">
         <f t="shared" si="4"/>
-        <v>-72.549040200512721</v>
+        <v>-51.699999999999974</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
-        <v>-72.419018233452221</v>
+        <v>-51.649999999999977</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
-        <v>-72.289282780126186</v>
+        <v>-51.59999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="4"/>
-        <v>-72.15983269759657</v>
+        <v>-51.549999999999983</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="4"/>
-        <v>-72.030666848815187</v>
+        <v>-51.499999999999979</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="4"/>
-        <v>-71.901784102585651</v>
+        <v>-51.449999999999982</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="4"/>
-        <v>-71.773183333525211</v>
+        <v>-51.399999999999984</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="C75">
         <f t="shared" si="4"/>
-        <v>-71.644863422027186</v>
+        <v>-51.349999999999973</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -6547,7 +6547,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="4"/>
-        <v>-71.516823254223652</v>
+        <v>-51.299999999999976</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="4"/>
-        <v>-71.389061721948167</v>
+        <v>-51.249999999999979</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="4"/>
-        <v>-71.261577722699101</v>
+        <v>-51.199999999999974</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="4"/>
-        <v>-71.134370159603108</v>
+        <v>-51.149999999999977</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C80">
         <f t="shared" si="4"/>
-        <v>-71.007437941378797</v>
+        <v>-51.09999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="4"/>
-        <v>-70.880779982300922</v>
+        <v>-51.049999999999983</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="4"/>
-        <v>-70.754395202164559</v>
+        <v>-50.999999999999979</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="4"/>
-        <v>-70.628282526249734</v>
+        <v>-50.949999999999982</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="4"/>
-        <v>-70.50244088528639</v>
+        <v>-50.899999999999984</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="4"/>
-        <v>-70.376869215419305</v>
+        <v>-50.849999999999987</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="4"/>
-        <v>-70.251566458173698</v>
+        <v>-50.799999999999976</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="4"/>
-        <v>-70.126531560420801</v>
+        <v>-50.749999999999972</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="4"/>
-        <v>-70.001763474343818</v>
+        <v>-50.699999999999982</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="4"/>
-        <v>-69.877261157403964</v>
+        <v>-50.649999999999977</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="4"/>
-        <v>-69.753023572307143</v>
+        <v>-50.59999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="C91">
         <f t="shared" si="4"/>
-        <v>-69.62904968697049</v>
+        <v>-50.549999999999976</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="C92">
         <f t="shared" si="4"/>
-        <v>-69.505338474489349</v>
+        <v>-50.499999999999979</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="C93">
         <f t="shared" si="4"/>
-        <v>-69.381888913104461</v>
+        <v>-50.449999999999982</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="4"/>
-        <v>-69.258699986169461</v>
+        <v>-50.399999999999984</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="C95">
         <f t="shared" si="4"/>
-        <v>-69.135770682118519</v>
+        <v>-50.34999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="C96">
         <f t="shared" si="4"/>
-        <v>-69.013099994434327</v>
+        <v>-50.29999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="C97">
         <f t="shared" si="4"/>
-        <v>-68.890686921616179</v>
+        <v>-50.249999999999986</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="C98">
         <f t="shared" si="4"/>
-        <v>-68.76853046714858</v>
+        <v>-50.199999999999989</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="C99">
         <f t="shared" si="4"/>
-        <v>-68.646629639469637</v>
+        <v>-50.149999999999984</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="4"/>
-        <v>-68.52498345194023</v>
+        <v>-50.09999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="C101">
         <f t="shared" si="4"/>
-        <v>-68.403590922812967</v>
+        <v>-50.049999999999983</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="C102">
         <f t="shared" si="4"/>
-        <v>-68.28245107520155</v>
+        <v>-49.999999999999986</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="C103">
         <f t="shared" si="4"/>
-        <v>-68.161562937050419</v>
+        <v>-49.949999999999982</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="C104">
         <f t="shared" si="4"/>
-        <v>-68.040925541104542</v>
+        <v>-49.899999999999984</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="C105">
         <f t="shared" si="4"/>
-        <v>-67.920537924879454</v>
+        <v>-49.849999999999987</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="C106">
         <f t="shared" si="4"/>
-        <v>-67.800399130631462</v>
+        <v>-49.799999999999983</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C107">
         <f t="shared" si="4"/>
-        <v>-67.680508205328337</v>
+        <v>-49.749999999999986</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="C108">
         <f t="shared" si="4"/>
-        <v>-67.56086420061969</v>
+        <v>-49.699999999999982</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="C109">
         <f t="shared" si="4"/>
-        <v>-67.441466172808177</v>
+        <v>-49.649999999999991</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="C110">
         <f t="shared" si="4"/>
-        <v>-67.322313182820466</v>
+        <v>-49.59999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -7037,7 +7037,7 @@
       </c>
       <c r="C111">
         <f t="shared" si="4"/>
-        <v>-67.203404296178761</v>
+        <v>-49.54999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="C112">
         <f t="shared" si="4"/>
-        <v>-67.084738582972122</v>
+        <v>-49.499999999999986</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="C113">
         <f t="shared" si="4"/>
-        <v>-66.966315117828444</v>
+        <v>-49.449999999999989</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="C114">
         <f t="shared" si="4"/>
-        <v>-66.848132979886373</v>
+        <v>-49.399999999999984</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="C115">
         <f t="shared" si="4"/>
-        <v>-66.730191252767469</v>
+        <v>-49.349999999999987</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="C116">
         <f t="shared" si="4"/>
-        <v>-66.612489024548637</v>
+        <v>-49.29999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="C117">
         <f t="shared" si="4"/>
-        <v>-66.495025387734685</v>
+        <v>-49.249999999999993</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="C118">
         <f t="shared" si="4"/>
-        <v>-66.377799439231154</v>
+        <v>-49.199999999999996</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="C119">
         <f t="shared" si="4"/>
-        <v>-66.260810280317287</v>
+        <v>-49.149999999999984</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="C120">
         <f t="shared" si="4"/>
-        <v>-66.144057016619286</v>
+        <v>-49.099999999999987</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="C121">
         <f t="shared" si="4"/>
-        <v>-66.027538758083608</v>
+        <v>-49.04999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="C122">
         <f t="shared" si="4"/>
-        <v>-65.911254618950622</v>
+        <v>-48.999999999999986</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="C123">
         <f t="shared" si="4"/>
-        <v>-65.795203717728398</v>
+        <v>-48.949999999999989</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C124">
         <f t="shared" si="4"/>
-        <v>-65.679385177166594</v>
+        <v>-48.899999999999991</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C125">
         <f t="shared" si="4"/>
-        <v>-65.563798124230715</v>
+        <v>-48.849999999999987</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="C126">
         <f t="shared" si="4"/>
-        <v>-65.448441690076351</v>
+        <v>-48.79999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="C127">
         <f t="shared" si="4"/>
-        <v>-65.333315010023853</v>
+        <v>-48.749999999999993</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="C128">
         <f t="shared" si="4"/>
-        <v>-65.21841722353291</v>
+        <v>-48.699999999999996</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="C129">
         <f t="shared" si="4"/>
-        <v>-65.103747474177538</v>
+        <v>-48.649999999999991</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="C130">
         <f t="shared" si="4"/>
-        <v>-64.989304909621154</v>
+        <v>-48.599999999999994</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -7316,8 +7316,8 @@
         <v>0.92675269235881774</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C194" si="7">DEGREES(-($H$1*COS(RADIANS(A131)))/($H$1*SIN(RADIANS(A131))+$H$1))</f>
-        <v>-64.875088681591819</v>
+        <f t="shared" ref="C131:C194" si="7">DEGREES(ATAN(-($H$1*COS(RADIANS(A131)))/($H$1*SIN(RADIANS(A131))+$H$1)))</f>
+        <v>-48.54999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="C132">
         <f t="shared" si="7"/>
-        <v>-64.761097945857657</v>
+        <v>-48.499999999999993</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="C133">
         <f t="shared" si="7"/>
-        <v>-64.647331862202535</v>
+        <v>-48.449999999999989</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="C134">
         <f t="shared" si="7"/>
-        <v>-64.533789594401838</v>
+        <v>-48.4</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -7373,7 +7373,7 @@
       </c>
       <c r="C135">
         <f t="shared" si="7"/>
-        <v>-64.420470310198397</v>
+        <v>-48.349999999999994</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="C136">
         <f t="shared" si="7"/>
-        <v>-64.307373181278649</v>
+        <v>-48.299999999999983</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="C137">
         <f t="shared" si="7"/>
-        <v>-64.194497383249058</v>
+        <v>-48.249999999999993</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="C138">
         <f t="shared" si="7"/>
-        <v>-64.081842095612402</v>
+        <v>-48.199999999999989</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="C139">
         <f t="shared" si="7"/>
-        <v>-63.969406501744572</v>
+        <v>-48.149999999999991</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="C140">
         <f t="shared" si="7"/>
-        <v>-63.857189788871324</v>
+        <v>-48.099999999999987</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C141">
         <f t="shared" si="7"/>
-        <v>-63.74519114804535</v>
+        <v>-48.04999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="C142">
         <f t="shared" si="7"/>
-        <v>-63.633409774123272</v>
+        <v>-47.999999999999986</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="C143">
         <f t="shared" si="7"/>
-        <v>-63.521844865743134</v>
+        <v>-47.949999999999996</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="C144">
         <f t="shared" si="7"/>
-        <v>-63.410495625301692</v>
+        <v>-47.899999999999991</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="C145">
         <f t="shared" si="7"/>
-        <v>-63.299361258932215</v>
+        <v>-47.849999999999994</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="C146">
         <f t="shared" si="7"/>
-        <v>-63.188440976482156</v>
+        <v>-47.79999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="C147">
         <f t="shared" si="7"/>
-        <v>-63.077733991491208</v>
+        <v>-47.749999999999993</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="C148">
         <f t="shared" si="7"/>
-        <v>-62.967239521169269</v>
+        <v>-47.699999999999996</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="C149">
         <f t="shared" si="7"/>
-        <v>-62.856956786374823</v>
+        <v>-47.649999999999991</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="C150">
         <f t="shared" si="7"/>
-        <v>-62.746885011593328</v>
+        <v>-47.599999999999987</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="C151">
         <f t="shared" si="7"/>
-        <v>-62.63702342491576</v>
+        <v>-47.55</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="C152">
         <f t="shared" si="7"/>
-        <v>-62.527371258017311</v>
+        <v>-47.499999999999993</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="C153">
         <f t="shared" si="7"/>
-        <v>-62.417927746136357</v>
+        <v>-47.45</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="C154">
         <f t="shared" si="7"/>
-        <v>-62.308692128053288</v>
+        <v>-47.4</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="C155">
         <f t="shared" si="7"/>
-        <v>-62.19966364606988</v>
+        <v>-47.349999999999987</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="C156">
         <f t="shared" si="7"/>
-        <v>-62.090841545988503</v>
+        <v>-47.29999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="C157">
         <f t="shared" si="7"/>
-        <v>-61.982225077091549</v>
+        <v>-47.249999999999993</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C158">
         <f t="shared" si="7"/>
-        <v>-61.873813492121066</v>
+        <v>-47.199999999999989</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -7709,7 +7709,7 @@
       </c>
       <c r="C159">
         <f t="shared" si="7"/>
-        <v>-61.765606047258558</v>
+        <v>-47.15</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="C160">
         <f t="shared" si="7"/>
-        <v>-61.657602002104689</v>
+        <v>-47.099999999999987</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="C161">
         <f t="shared" si="7"/>
-        <v>-61.549800619659592</v>
+        <v>-47.05</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="C162">
         <f t="shared" si="7"/>
-        <v>-61.442201166302716</v>
+        <v>-46.999999999999993</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="C163">
         <f t="shared" si="7"/>
-        <v>-61.334802911773345</v>
+        <v>-46.949999999999996</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="C164">
         <f t="shared" si="7"/>
-        <v>-61.22760512915098</v>
+        <v>-46.9</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="C165">
         <f t="shared" si="7"/>
-        <v>-61.120607094835869</v>
+        <v>-46.85</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="C166">
         <f t="shared" si="7"/>
-        <v>-61.013808088529721</v>
+        <v>-46.8</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="C167">
         <f t="shared" si="7"/>
-        <v>-60.907207393216659</v>
+        <v>-46.749999999999993</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="C168">
         <f t="shared" si="7"/>
-        <v>-60.800804295144019</v>
+        <v>-46.699999999999996</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="C169">
         <f t="shared" si="7"/>
-        <v>-60.694598083803584</v>
+        <v>-46.649999999999991</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C170">
         <f t="shared" si="7"/>
-        <v>-60.588588051912787</v>
+        <v>-46.599999999999994</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="C171">
         <f t="shared" si="7"/>
-        <v>-60.482773495396039</v>
+        <v>-46.55</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="C172">
         <f t="shared" si="7"/>
-        <v>-60.377153713366255</v>
+        <v>-46.499999999999986</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="C173">
         <f t="shared" si="7"/>
-        <v>-60.271728008106528</v>
+        <v>-46.449999999999996</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="C174">
         <f t="shared" si="7"/>
-        <v>-60.166495685051743</v>
+        <v>-46.399999999999991</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="C175">
         <f t="shared" si="7"/>
-        <v>-60.061456052770595</v>
+        <v>-46.349999999999994</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C176">
         <f t="shared" si="7"/>
-        <v>-59.956608422947482</v>
+        <v>-46.300000000000004</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="C177">
         <f t="shared" si="7"/>
-        <v>-59.851952110364664</v>
+        <v>-46.25</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="C178">
         <f t="shared" si="7"/>
-        <v>-59.747486432884514</v>
+        <v>-46.199999999999996</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="C179">
         <f t="shared" si="7"/>
-        <v>-59.643210711431863</v>
+        <v>-46.149999999999991</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="C180">
         <f t="shared" si="7"/>
-        <v>-59.539124269976533</v>
+        <v>-46.099999999999994</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -8017,7 +8017,7 @@
       </c>
       <c r="C181">
         <f t="shared" si="7"/>
-        <v>-59.43522643551583</v>
+        <v>-46.04999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="C182">
         <f t="shared" si="7"/>
-        <v>-59.331516538057414</v>
+        <v>-45.999999999999993</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="C183">
         <f t="shared" si="7"/>
-        <v>-59.227993910601974</v>
+        <v>-45.949999999999989</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="C184">
         <f t="shared" si="7"/>
-        <v>-59.124657889126368</v>
+        <v>-45.9</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -8073,7 +8073,7 @@
       </c>
       <c r="C185">
         <f t="shared" si="7"/>
-        <v>-59.02150781256649</v>
+        <v>-45.849999999999994</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -8087,7 +8087,7 @@
       </c>
       <c r="C186">
         <f t="shared" si="7"/>
-        <v>-58.918543022800669</v>
+        <v>-45.8</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="C187">
         <f t="shared" si="7"/>
-        <v>-58.815762864632816</v>
+        <v>-45.749999999999993</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="C188">
         <f t="shared" si="7"/>
-        <v>-58.713166685775867</v>
+        <v>-45.699999999999996</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="C189">
         <f t="shared" si="7"/>
-        <v>-58.610753836835364</v>
+        <v>-45.65</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="C190">
         <f t="shared" si="7"/>
-        <v>-58.50852367129302</v>
+        <v>-45.599999999999994</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="C191">
         <f t="shared" si="7"/>
-        <v>-58.40647554549053</v>
+        <v>-45.54999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="C192">
         <f t="shared" si="7"/>
-        <v>-58.304608818613389</v>
+        <v>-45.499999999999993</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="C193">
         <f t="shared" si="7"/>
-        <v>-58.202922852674838</v>
+        <v>-45.449999999999989</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="C194">
         <f t="shared" si="7"/>
-        <v>-58.101417012499994</v>
+        <v>-45.399999999999991</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -8212,8 +8212,8 @@
         <v>0.98388380369912476</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C258" si="10">DEGREES(-($H$1*COS(RADIANS(A195)))/($H$1*SIN(RADIANS(A195))+$H$1))</f>
-        <v>-58.000090665709962</v>
+        <f t="shared" ref="C195:C258" si="10">DEGREES(ATAN(-($H$1*COS(RADIANS(A195)))/($H$1*SIN(RADIANS(A195))+$H$1)))</f>
+        <v>-45.349999999999987</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="C196">
         <f t="shared" si="10"/>
-        <v>-57.898943182706219</v>
+        <v>-45.3</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="C197">
         <f t="shared" si="10"/>
-        <v>-57.797973936654834</v>
+        <v>-45.249999999999993</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="C198">
         <f t="shared" si="10"/>
-        <v>-57.697182303471187</v>
+        <v>-45.199999999999996</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="C199">
         <f t="shared" si="10"/>
-        <v>-57.596567661804379</v>
+        <v>-45.15</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="C200">
         <f t="shared" si="10"/>
-        <v>-57.496129393021988</v>
+        <v>-45.099999999999994</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="C201">
         <f t="shared" si="10"/>
-        <v>-57.395866881194934</v>
+        <v>-45.05</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C202">
         <f t="shared" si="10"/>
-        <v>-57.295779513082302</v>
+        <v>-44.999999999999993</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="C203">
         <f t="shared" si="10"/>
-        <v>-57.19586667811641</v>
+        <v>-44.949999999999996</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="C204">
         <f t="shared" si="10"/>
-        <v>-57.096127768387831</v>
+        <v>-44.9</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -8353,7 +8353,7 @@
       </c>
       <c r="C205">
         <f t="shared" si="10"/>
-        <v>-56.996562178630683</v>
+        <v>-44.849999999999994</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="C206">
         <f t="shared" si="10"/>
-        <v>-56.897169306207886</v>
+        <v>-44.79999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="C207">
         <f t="shared" si="10"/>
-        <v>-56.797948551096574</v>
+        <v>-44.749999999999993</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="C208">
         <f t="shared" si="10"/>
-        <v>-56.698899315873547</v>
+        <v>-44.699999999999996</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C209">
         <f t="shared" si="10"/>
-        <v>-56.60002100570091</v>
+        <v>-44.649999999999991</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="C210">
         <f t="shared" si="10"/>
-        <v>-56.501313028311792</v>
+        <v>-44.599999999999994</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="C211">
         <f t="shared" si="10"/>
-        <v>-56.402774793995995</v>
+        <v>-44.54999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="C212">
         <f t="shared" si="10"/>
-        <v>-56.304405715586007</v>
+        <v>-44.499999999999993</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="C213">
         <f t="shared" si="10"/>
-        <v>-56.206205208442881</v>
+        <v>-44.449999999999996</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="C214">
         <f t="shared" si="10"/>
-        <v>-56.108172690442331</v>
+        <v>-44.399999999999991</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="C215">
         <f t="shared" si="10"/>
-        <v>-56.01030758196088</v>
+        <v>-44.349999999999994</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="C216">
         <f t="shared" si="10"/>
-        <v>-55.912609305862063</v>
+        <v>-44.29999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="C217">
         <f t="shared" si="10"/>
-        <v>-55.815077287482815</v>
+        <v>-44.249999999999993</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="C218">
         <f t="shared" si="10"/>
-        <v>-55.717710954619854</v>
+        <v>-44.199999999999996</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -8549,7 +8549,7 @@
       </c>
       <c r="C219">
         <f t="shared" si="10"/>
-        <v>-55.62050973751618</v>
+        <v>-44.149999999999991</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -8563,7 +8563,7 @@
       </c>
       <c r="C220">
         <f t="shared" si="10"/>
-        <v>-55.523473068847728</v>
+        <v>-44.1</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="C221">
         <f t="shared" si="10"/>
-        <v>-55.426600383709946</v>
+        <v>-44.04999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="C222">
         <f t="shared" si="10"/>
-        <v>-55.329891119604717</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="C223">
         <f t="shared" si="10"/>
-        <v>-55.233344716427013</v>
+        <v>-43.949999999999989</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="C224">
         <f t="shared" si="10"/>
-        <v>-55.136960616452079</v>
+        <v>-43.899999999999991</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="C225">
         <f t="shared" si="10"/>
-        <v>-55.040738264322236</v>
+        <v>-43.849999999999994</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="C226">
         <f t="shared" si="10"/>
-        <v>-54.944677107034138</v>
+        <v>-43.79999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="C227">
         <f t="shared" si="10"/>
-        <v>-54.848776593925898</v>
+        <v>-43.749999999999993</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="C228">
         <f t="shared" si="10"/>
-        <v>-54.753036176664359</v>
+        <v>-43.699999999999989</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="C229">
         <f t="shared" si="10"/>
-        <v>-54.657455309232539</v>
+        <v>-43.65</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="C230">
         <f t="shared" si="10"/>
-        <v>-54.56203344791691</v>
+        <v>-43.599999999999994</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="C231">
         <f t="shared" si="10"/>
-        <v>-54.466770051295121</v>
+        <v>-43.55</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="C232">
         <f t="shared" si="10"/>
-        <v>-54.371664580223438</v>
+        <v>-43.499999999999993</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="C233">
         <f t="shared" si="10"/>
-        <v>-54.276716497824467</v>
+        <v>-43.449999999999996</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="C234">
         <f t="shared" si="10"/>
-        <v>-54.181925269474966</v>
+        <v>-43.4</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="C235">
         <f t="shared" si="10"/>
-        <v>-54.087290362793617</v>
+        <v>-43.349999999999987</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="C236">
         <f t="shared" si="10"/>
-        <v>-53.992811247629007</v>
+        <v>-43.29999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="C237">
         <f t="shared" si="10"/>
-        <v>-53.89848739604755</v>
+        <v>-43.249999999999993</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="C238">
         <f t="shared" si="10"/>
-        <v>-53.804318282321603</v>
+        <v>-43.199999999999989</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -8829,7 +8829,7 @@
       </c>
       <c r="C239">
         <f t="shared" si="10"/>
-        <v>-53.710303382917637</v>
+        <v>-43.149999999999991</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="C240">
         <f t="shared" si="10"/>
-        <v>-53.616442176484391</v>
+        <v>-43.099999999999994</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="C241">
         <f t="shared" si="10"/>
-        <v>-53.522734143841205</v>
+        <v>-43.05</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="C242">
         <f t="shared" si="10"/>
-        <v>-53.42917876796642</v>
+        <v>-42.999999999999993</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="C243">
         <f t="shared" si="10"/>
-        <v>-53.335775533985775</v>
+        <v>-42.949999999999996</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="C244">
         <f t="shared" si="10"/>
-        <v>-53.24252392916096</v>
+        <v>-42.899999999999991</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="C245">
         <f t="shared" si="10"/>
-        <v>-53.149423442878195</v>
+        <v>-42.849999999999994</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="C246">
         <f t="shared" si="10"/>
-        <v>-53.056473566636875</v>
+        <v>-42.79999999999999</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="C247">
         <f t="shared" si="10"/>
-        <v>-52.963673794038385</v>
+        <v>-42.749999999999993</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="C248">
         <f t="shared" si="10"/>
-        <v>-52.871023620774771</v>
+        <v>-42.699999999999989</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="C249">
         <f t="shared" si="10"/>
-        <v>-52.778522544617772</v>
+        <v>-42.649999999999991</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="C250">
         <f t="shared" si="10"/>
-        <v>-52.686170065407651</v>
+        <v>-42.599999999999994</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="C251">
         <f t="shared" si="10"/>
-        <v>-52.593965685042264</v>
+        <v>-42.54999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="C252">
         <f t="shared" si="10"/>
-        <v>-52.501908907466152</v>
+        <v>-42.499999999999993</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="C253">
         <f t="shared" si="10"/>
-        <v>-52.409999238659665</v>
+        <v>-42.449999999999996</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="C254">
         <f t="shared" si="10"/>
-        <v>-52.318236186628233</v>
+        <v>-42.4</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="C255">
         <f t="shared" si="10"/>
-        <v>-52.226619261391598</v>
+        <v>-42.35</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="C256">
         <f t="shared" si="10"/>
-        <v>-52.135147974973243</v>
+        <v>-42.3</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="C257">
         <f t="shared" si="10"/>
-        <v>-52.04382184138975</v>
+        <v>-42.25</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="C258">
         <f t="shared" si="10"/>
-        <v>-51.952640376640346</v>
+        <v>-42.199999999999996</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -9108,8 +9108,8 @@
         <v>1.037946701304439</v>
       </c>
       <c r="C259">
-        <f t="shared" ref="C259:C322" si="13">DEGREES(-($H$1*COS(RADIANS(A259)))/($H$1*SIN(RADIANS(A259))+$H$1))</f>
-        <v>-51.861603098696413</v>
+        <f t="shared" ref="C259:C322" si="13">DEGREES(ATAN(-($H$1*COS(RADIANS(A259)))/($H$1*SIN(RADIANS(A259))+$H$1)))</f>
+        <v>-42.15</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C260">
         <f t="shared" si="13"/>
-        <v>-51.770709527491157</v>
+        <v>-42.099999999999994</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="C261">
         <f t="shared" si="13"/>
-        <v>-51.679959184909258</v>
+        <v>-42.05</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="C262">
         <f t="shared" si="13"/>
-        <v>-51.589351594776637</v>
+        <v>-41.999999999999993</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="C263">
         <f t="shared" si="13"/>
-        <v>-51.498886282850293</v>
+        <v>-41.949999999999996</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="C264">
         <f t="shared" si="13"/>
-        <v>-51.408562776808118</v>
+        <v>-41.9</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="13"/>
-        <v>-51.318380606238925</v>
+        <v>-41.85</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="C266">
         <f t="shared" si="13"/>
-        <v>-51.228339302632378</v>
+        <v>-41.800000000000004</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="13"/>
-        <v>-51.138438399369093</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="C268">
         <f t="shared" si="13"/>
-        <v>-51.048677431710772</v>
+        <v>-41.7</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -9249,7 +9249,7 @@
       </c>
       <c r="C269">
         <f t="shared" si="13"/>
-        <v>-50.959055936790364</v>
+        <v>-41.65</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="C270">
         <f t="shared" si="13"/>
-        <v>-50.869573453602335</v>
+        <v>-41.599999999999994</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="C271">
         <f t="shared" si="13"/>
-        <v>-50.78022952299299</v>
+        <v>-41.55</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="C272">
         <f t="shared" si="13"/>
-        <v>-50.69102368765077</v>
+        <v>-41.499999999999993</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="C273">
         <f t="shared" si="13"/>
-        <v>-50.601955492096806</v>
+        <v>-41.449999999999996</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="C274">
         <f t="shared" si="13"/>
-        <v>-50.513024482675277</v>
+        <v>-41.399999999999991</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="C275">
         <f t="shared" si="13"/>
-        <v>-50.424230207544056</v>
+        <v>-41.35</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="C276">
         <f t="shared" si="13"/>
-        <v>-50.335572216665206</v>
+        <v>-41.3</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C277">
         <f t="shared" si="13"/>
-        <v>-50.24705006179579</v>
+        <v>-41.25</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="C278">
         <f t="shared" si="13"/>
-        <v>-50.158663296478451</v>
+        <v>-41.2</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="C279">
         <f t="shared" si="13"/>
-        <v>-50.070411476032248</v>
+        <v>-41.150000000000006</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="C280">
         <f t="shared" si="13"/>
-        <v>-49.982294157543485</v>
+        <v>-41.1</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="C281">
         <f t="shared" si="13"/>
-        <v>-49.894310899856606</v>
+        <v>-41.05</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -9431,7 +9431,7 @@
       </c>
       <c r="C282">
         <f t="shared" si="13"/>
-        <v>-49.806461263565126</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -9445,7 +9445,7 @@
       </c>
       <c r="C283">
         <f t="shared" si="13"/>
-        <v>-49.718744811002594</v>
+        <v>-40.949999999999996</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="C284">
         <f t="shared" si="13"/>
-        <v>-49.631161106233748</v>
+        <v>-40.9</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="C285">
         <f t="shared" si="13"/>
-        <v>-49.543709715045495</v>
+        <v>-40.849999999999994</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="C286">
         <f t="shared" si="13"/>
-        <v>-49.456390204938181</v>
+        <v>-40.799999999999997</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="C287">
         <f t="shared" si="13"/>
-        <v>-49.369202145116731</v>
+        <v>-40.75</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="C288">
         <f t="shared" si="13"/>
-        <v>-49.282145106481948</v>
+        <v>-40.700000000000003</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="C289">
         <f t="shared" si="13"/>
-        <v>-49.195218661621858</v>
+        <v>-40.650000000000006</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="C290">
         <f t="shared" si="13"/>
-        <v>-49.108422384803035</v>
+        <v>-40.6</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -9557,7 +9557,7 @@
       </c>
       <c r="C291">
         <f t="shared" si="13"/>
-        <v>-49.021755851962062</v>
+        <v>-40.550000000000004</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="C292">
         <f t="shared" si="13"/>
-        <v>-48.935218640697002</v>
+        <v>-40.500000000000007</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="C293">
         <f t="shared" si="13"/>
-        <v>-48.8488103302589</v>
+        <v>-40.449999999999996</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C294">
         <f t="shared" si="13"/>
-        <v>-48.762530501543417</v>
+        <v>-40.4</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="C295">
         <f t="shared" si="13"/>
-        <v>-48.676378737082409</v>
+        <v>-40.349999999999994</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="C296">
         <f t="shared" si="13"/>
-        <v>-48.59035462103563</v>
+        <v>-40.29999999999999</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="C297">
         <f t="shared" si="13"/>
-        <v>-48.504457739182492</v>
+        <v>-40.25</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="C298">
         <f t="shared" si="13"/>
-        <v>-48.418687678913763</v>
+        <v>-40.200000000000003</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="C299">
         <f t="shared" si="13"/>
-        <v>-48.333044029223494</v>
+        <v>-40.150000000000006</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="C300">
         <f t="shared" si="13"/>
-        <v>-48.247526380700826</v>
+        <v>-40.1</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="C301">
         <f t="shared" si="13"/>
-        <v>-48.162134325521976</v>
+        <v>-40.050000000000011</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="C302">
         <f t="shared" si="13"/>
-        <v>-48.076867457442134</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="C303">
         <f t="shared" si="13"/>
-        <v>-47.991725371787588</v>
+        <v>-39.950000000000003</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="C304">
         <f t="shared" si="13"/>
-        <v>-47.906707665447705</v>
+        <v>-39.900000000000006</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="C305">
         <f t="shared" si="13"/>
-        <v>-47.821813936867088</v>
+        <v>-39.85</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="C306">
         <f t="shared" si="13"/>
-        <v>-47.737043786037759</v>
+        <v>-39.800000000000004</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="C307">
         <f t="shared" si="13"/>
-        <v>-47.652396814491325</v>
+        <v>-39.75</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="C308">
         <f t="shared" si="13"/>
-        <v>-47.56787262529128</v>
+        <v>-39.700000000000003</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="C309">
         <f t="shared" si="13"/>
-        <v>-47.483470823025286</v>
+        <v>-39.65</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="C310">
         <f t="shared" si="13"/>
-        <v>-47.399191013797527</v>
+        <v>-39.6</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C311">
         <f t="shared" si="13"/>
-        <v>-47.315032805221065</v>
+        <v>-39.550000000000004</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="C312">
         <f t="shared" si="13"/>
-        <v>-47.230995806410398</v>
+        <v>-39.500000000000007</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="C313">
         <f t="shared" si="13"/>
-        <v>-47.147079627973795</v>
+        <v>-39.450000000000003</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -9879,7 +9879,7 @@
       </c>
       <c r="C314">
         <f t="shared" si="13"/>
-        <v>-47.063283882005926</v>
+        <v>-39.400000000000013</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="C315">
         <f t="shared" si="13"/>
-        <v>-46.979608182080369</v>
+        <v>-39.35</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="C316">
         <f t="shared" si="13"/>
-        <v>-46.896052143242315</v>
+        <v>-39.300000000000011</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="C317">
         <f t="shared" si="13"/>
-        <v>-46.812615382001113</v>
+        <v>-39.250000000000007</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -9935,7 +9935,7 @@
       </c>
       <c r="C318">
         <f t="shared" si="13"/>
-        <v>-46.729297516323072</v>
+        <v>-39.200000000000003</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="C319">
         <f t="shared" si="13"/>
-        <v>-46.64609816562416</v>
+        <v>-39.15</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -9963,7 +9963,7 @@
       </c>
       <c r="C320">
         <f t="shared" si="13"/>
-        <v>-46.563016950762801</v>
+        <v>-39.1</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="C321">
         <f t="shared" si="13"/>
-        <v>-46.480053494032688</v>
+        <v>-39.050000000000004</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="C322">
         <f t="shared" si="13"/>
-        <v>-46.39720741915567</v>
+        <v>-39.000000000000007</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -10004,8 +10004,8 @@
         <v>1.088772791562016</v>
       </c>
       <c r="C323">
-        <f t="shared" ref="C323:C386" si="17">DEGREES(-($H$1*COS(RADIANS(A323)))/($H$1*SIN(RADIANS(A323))+$H$1))</f>
-        <v>-46.314478351274715</v>
+        <f t="shared" ref="C323:C386" si="17">DEGREES(ATAN(-($H$1*COS(RADIANS(A323)))/($H$1*SIN(RADIANS(A323))+$H$1)))</f>
+        <v>-38.95000000000001</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="C324">
         <f t="shared" si="17"/>
-        <v>-46.231865916946745</v>
+        <v>-38.900000000000006</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="C325">
         <f t="shared" si="17"/>
-        <v>-46.149369744135775</v>
+        <v>-38.850000000000009</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="C326">
         <f t="shared" si="17"/>
-        <v>-46.066989462205839</v>
+        <v>-38.800000000000004</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="C327">
         <f t="shared" si="17"/>
-        <v>-45.984724701914132</v>
+        <v>-38.750000000000007</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -10075,7 +10075,7 @@
       </c>
       <c r="C328">
         <f t="shared" si="17"/>
-        <v>-45.902575095404082</v>
+        <v>-38.70000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="C329">
         <f t="shared" si="17"/>
-        <v>-45.820540276198557</v>
+        <v>-38.650000000000006</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="C330">
         <f t="shared" si="17"/>
-        <v>-45.738619879193045</v>
+        <v>-38.600000000000009</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="C331">
         <f t="shared" si="17"/>
-        <v>-45.656813540648855</v>
+        <v>-38.550000000000011</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="C332">
         <f t="shared" si="17"/>
-        <v>-45.575120898186441</v>
+        <v>-38.500000000000007</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="C333">
         <f t="shared" si="17"/>
-        <v>-45.493541590778705</v>
+        <v>-38.45000000000001</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -10159,7 +10159,7 @@
       </c>
       <c r="C334">
         <f t="shared" si="17"/>
-        <v>-45.412075258744345</v>
+        <v>-38.400000000000013</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="C335">
         <f t="shared" si="17"/>
-        <v>-45.330721543741234</v>
+        <v>-38.350000000000009</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="C336">
         <f t="shared" si="17"/>
-        <v>-45.249480088759903</v>
+        <v>-38.300000000000011</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="C337">
         <f t="shared" si="17"/>
-        <v>-45.168350538116918</v>
+        <v>-38.250000000000007</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="C338">
         <f t="shared" si="17"/>
-        <v>-45.087332537448482</v>
+        <v>-38.20000000000001</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -10229,7 +10229,7 @@
       </c>
       <c r="C339">
         <f t="shared" si="17"/>
-        <v>-45.006425733703921</v>
+        <v>-38.150000000000006</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="C340">
         <f t="shared" si="17"/>
-        <v>-44.925629775139278</v>
+        <v>-38.100000000000009</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="C341">
         <f t="shared" si="17"/>
-        <v>-44.84494431131094</v>
+        <v>-38.050000000000004</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="C342">
         <f t="shared" si="17"/>
-        <v>-44.764368993069276</v>
+        <v>-38.000000000000007</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="C343">
         <f t="shared" si="17"/>
-        <v>-44.683903472552352</v>
+        <v>-37.95000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="C344">
         <f t="shared" si="17"/>
-        <v>-44.603547403179604</v>
+        <v>-37.900000000000006</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="C345">
         <f t="shared" si="17"/>
-        <v>-44.523300439645666</v>
+        <v>-37.850000000000009</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="C346">
         <f t="shared" si="17"/>
-        <v>-44.443162237914144</v>
+        <v>-37.800000000000011</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="C347">
         <f t="shared" si="17"/>
-        <v>-44.363132455211435</v>
+        <v>-37.750000000000014</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -10355,7 +10355,7 @@
       </c>
       <c r="C348">
         <f t="shared" si="17"/>
-        <v>-44.283210750020594</v>
+        <v>-37.700000000000017</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="C349">
         <f t="shared" si="17"/>
-        <v>-44.203396782075245</v>
+        <v>-37.650000000000006</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="C350">
         <f t="shared" si="17"/>
-        <v>-44.123690212353559</v>
+        <v>-37.600000000000016</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="C351">
         <f t="shared" si="17"/>
-        <v>-44.044090703072136</v>
+        <v>-37.550000000000011</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="C352">
         <f t="shared" si="17"/>
-        <v>-43.964597917680095</v>
+        <v>-37.500000000000007</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="C353">
         <f t="shared" si="17"/>
-        <v>-43.88521152085309</v>
+        <v>-37.45000000000001</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="C354">
         <f t="shared" si="17"/>
-        <v>-43.805931178487356</v>
+        <v>-37.400000000000006</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -10453,7 +10453,7 @@
       </c>
       <c r="C355">
         <f t="shared" si="17"/>
-        <v>-43.726756557693861</v>
+        <v>-37.350000000000009</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="C356">
         <f t="shared" si="17"/>
-        <v>-43.647687326792401</v>
+        <v>-37.300000000000011</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="C357">
         <f t="shared" si="17"/>
-        <v>-43.568723155305804</v>
+        <v>-37.250000000000014</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -10495,7 +10495,7 @@
       </c>
       <c r="C358">
         <f t="shared" si="17"/>
-        <v>-43.489863713954165</v>
+        <v>-37.200000000000017</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="C359">
         <f t="shared" si="17"/>
-        <v>-43.411108674649007</v>
+        <v>-37.150000000000013</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="C360">
         <f t="shared" si="17"/>
-        <v>-43.332457710487624</v>
+        <v>-37.100000000000016</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="C361">
         <f t="shared" si="17"/>
-        <v>-43.253910495747348</v>
+        <v>-37.050000000000018</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C362">
         <f t="shared" si="17"/>
-        <v>-43.175466705879906</v>
+        <v>-37.000000000000014</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -10565,7 +10565,7 @@
       </c>
       <c r="C363">
         <f t="shared" si="17"/>
-        <v>-43.097126017505765</v>
+        <v>-36.95000000000001</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -10579,7 +10579,7 @@
       </c>
       <c r="C364">
         <f t="shared" si="17"/>
-        <v>-43.018888108408575</v>
+        <v>-36.900000000000013</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="C365">
         <f t="shared" si="17"/>
-        <v>-42.940752657529544</v>
+        <v>-36.850000000000009</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="C366">
         <f t="shared" si="17"/>
-        <v>-42.862719344961931</v>
+        <v>-36.800000000000011</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="C367">
         <f t="shared" si="17"/>
-        <v>-42.784787851945545</v>
+        <v>-36.750000000000007</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="C368">
         <f t="shared" si="17"/>
-        <v>-42.706957860861252</v>
+        <v>-36.70000000000001</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="C369">
         <f t="shared" si="17"/>
-        <v>-42.629229055225551</v>
+        <v>-36.650000000000013</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="C370">
         <f t="shared" si="17"/>
-        <v>-42.551601119685117</v>
+        <v>-36.600000000000009</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="C371">
         <f t="shared" si="17"/>
-        <v>-42.474073740011477</v>
+        <v>-36.550000000000011</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="C372">
         <f t="shared" si="17"/>
-        <v>-42.396646603095604</v>
+        <v>-36.500000000000007</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="C373">
         <f t="shared" si="17"/>
-        <v>-42.319319396942603</v>
+        <v>-36.450000000000003</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="C374">
         <f t="shared" si="17"/>
-        <v>-42.242091810666452</v>
+        <v>-36.400000000000006</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -10733,7 +10733,7 @@
       </c>
       <c r="C375">
         <f t="shared" si="17"/>
-        <v>-42.16496353448467</v>
+        <v>-36.35</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="C376">
         <f t="shared" si="17"/>
-        <v>-42.087934259713144</v>
+        <v>-36.300000000000004</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="C377">
         <f t="shared" si="17"/>
-        <v>-42.011003678760858</v>
+        <v>-36.25</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="C378">
         <f t="shared" si="17"/>
-        <v>-41.9341714851248</v>
+        <v>-36.200000000000003</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="C379">
         <f t="shared" si="17"/>
-        <v>-41.85743737338472</v>
+        <v>-36.150000000000006</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="C380">
         <f t="shared" si="17"/>
-        <v>-41.780801039198046</v>
+        <v>-36.1</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="C381">
         <f t="shared" si="17"/>
-        <v>-41.704262179294822</v>
+        <v>-36.049999999999997</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="C382">
         <f t="shared" si="17"/>
-        <v>-41.62782049147259</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="C383">
         <f t="shared" si="17"/>
-        <v>-41.551475674591373</v>
+        <v>-35.949999999999996</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="C384">
         <f t="shared" si="17"/>
-        <v>-41.475227428568658</v>
+        <v>-35.9</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="C385">
         <f t="shared" si="17"/>
-        <v>-41.399075454374447</v>
+        <v>-35.849999999999994</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="C386">
         <f t="shared" si="17"/>
-        <v>-41.323019454026237</v>
+        <v>-35.799999999999997</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -10900,8 +10900,8 @@
         <v>1.1362035747510171</v>
       </c>
       <c r="C387">
-        <f t="shared" ref="C387:C402" si="21">DEGREES(-($H$1*COS(RADIANS(A387)))/($H$1*SIN(RADIANS(A387))+$H$1))</f>
-        <v>-41.247059130584162</v>
+        <f t="shared" ref="C387:C402" si="21">DEGREES(ATAN(-($H$1*COS(RADIANS(A387)))/($H$1*SIN(RADIANS(A387))+$H$1)))</f>
+        <v>-35.749999999999993</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -10915,7 +10915,7 @@
       </c>
       <c r="C388">
         <f t="shared" si="21"/>
-        <v>-41.171194188146046</v>
+        <v>-35.700000000000003</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="C389">
         <f t="shared" si="21"/>
-        <v>-41.095424331842523</v>
+        <v>-35.65</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="C390">
         <f t="shared" si="21"/>
-        <v>-41.019749267832239</v>
+        <v>-35.599999999999994</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -10957,7 +10957,7 @@
       </c>
       <c r="C391">
         <f t="shared" si="21"/>
-        <v>-40.944168703296967</v>
+        <v>-35.54999999999999</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="C392">
         <f t="shared" si="21"/>
-        <v>-40.86868234643687</v>
+        <v>-35.499999999999993</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="C393">
         <f t="shared" si="21"/>
-        <v>-40.793289906465681</v>
+        <v>-35.449999999999996</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="C394">
         <f t="shared" si="21"/>
-        <v>-40.717991093605988</v>
+        <v>-35.399999999999984</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="C395">
         <f t="shared" si="21"/>
-        <v>-40.642785619084535</v>
+        <v>-35.349999999999987</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C396">
         <f t="shared" si="21"/>
-        <v>-40.567673195127476</v>
+        <v>-35.299999999999983</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="C397">
         <f t="shared" si="21"/>
-        <v>-40.49265353495575</v>
+        <v>-35.249999999999986</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="C398">
         <f t="shared" si="21"/>
-        <v>-40.417726352780434</v>
+        <v>-35.199999999999989</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="C399">
         <f t="shared" si="21"/>
-        <v>-40.342891363798124</v>
+        <v>-35.149999999999984</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -11083,7 +11083,7 @@
       </c>
       <c r="C400">
         <f t="shared" si="21"/>
-        <v>-40.268148284186353</v>
+        <v>-35.099999999999994</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="C401">
         <f t="shared" si="21"/>
-        <v>-40.193496831098962</v>
+        <v>-35.04999999999999</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="C402">
         <f t="shared" si="21"/>
-        <v>-40.118936722661672</v>
+        <v>-34.999999999999986</v>
       </c>
     </row>
   </sheetData>
